--- a/biology/Médecine/Agastache_mexicana/Agastache_mexicana.xlsx
+++ b/biology/Médecine/Agastache_mexicana/Agastache_mexicana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache mexicana, communément appelée agastache mexicaine, agastache mentholée ou hysope mexicaine, est une espèce de plantes à fleurs de la famille des Lamiaceae (Labiées), tribu des Mentheae, genre Agastache. C'est une plante herbacée cultivée comme plante ornementale, aromatique et condimentaire.
 Elle est également utilisée comme plante mellifère.
@@ -515,7 +527,9 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plante vivace sous les climats chauds et secs, mais durée de vie de quelques années, voire annuelle sous climat tempéré.
 Tige : vigoureuses touffes dressées (80cm à 1m).
@@ -550,7 +564,9 @@
           <t>Principaux cultivars</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache mexicana 'Bourg-la-Reine'.
 Agastache mexicana 'Red Fortune' ®.
@@ -584,7 +600,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache mexicana est une plante vivace sous les climats chauds mais de courte durée de vie (annuelle) sous climat tempéré. Elle craint les gelées.
 Elle sait s'adapter à la plupart des types de sols (y compris calcaires ou argileux) à condition qu'ils soient correctement drainés. Elle préfère une exposition ensoleillée.
@@ -618,7 +636,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Agastache mexicana est originaire  d'Amérique centrale et du Mexique.
 </t>
@@ -649,7 +669,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En Europe, compte tenu de sa faible durée de vie, elle est surtout plantée à titre décoratif dans les massifs floraux renouvelés annuellement.
 Elle possède cependant les mêmes qualités aromatiques que les autres agastaches.
@@ -683,7 +705,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dracocephalum mexicanum Kunth
 Cedronella mexicana (Kunth) Benth.
